--- a/diccionario de datos, alerta mujer.xlsx
+++ b/diccionario de datos, alerta mujer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\ADSO\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SENA\Ga6\AA2\EV02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46126991-2CE2-4F5C-B031-6A652F98F52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773DE97-8FE8-4075-A195-BC39A04A9611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario de Datos para Base " sheetId="1" r:id="rId1"/>
@@ -946,6 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H90"/>
   <sheetViews>
@@ -983,7 +984,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1021,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1037,7 +1038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1053,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1069,7 +1070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -1085,7 +1086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -1101,7 +1102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -1117,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -1133,7 +1134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -1171,7 +1172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -1187,7 +1188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -1203,7 +1204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>45</v>
@@ -1241,7 +1242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>47</v>
@@ -1259,7 +1260,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -1275,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>52</v>
@@ -1291,7 +1292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>55</v>
@@ -1307,7 +1308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>57</v>
@@ -1323,7 +1324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>59</v>
@@ -1339,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>61</v>
@@ -1355,7 +1356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
         <v>66</v>
@@ -1393,7 +1394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
@@ -1409,7 +1410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>7</v>
@@ -1427,7 +1428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>72</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>75</v>
@@ -1465,7 +1466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>39</v>
@@ -1481,7 +1482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>43</v>
@@ -1519,7 +1520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>82</v>
@@ -1535,7 +1536,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>84</v>
@@ -1551,7 +1552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
         <v>86</v>
@@ -1567,7 +1568,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
         <v>88</v>
@@ -1583,7 +1584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>91</v>
@@ -1599,7 +1600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>93</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>79</v>
@@ -1637,7 +1638,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
         <v>98</v>
@@ -1653,7 +1654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
         <v>101</v>
@@ -1669,7 +1670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
         <v>103</v>
@@ -1685,7 +1686,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>106</v>
@@ -1701,7 +1702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
         <v>108</v>
@@ -1717,7 +1718,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -1753,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
         <v>115</v>
@@ -1771,7 +1772,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>118</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
         <v>121</v>
@@ -1807,7 +1808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
         <v>123</v>
@@ -1823,7 +1824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1839,7 +1840,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
         <v>47</v>
@@ -1855,7 +1856,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>129</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>132</v>
@@ -1891,7 +1892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>134</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
         <v>43</v>
@@ -1929,7 +1930,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
         <v>32</v>
@@ -1947,7 +1948,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>139</v>
@@ -1963,7 +1964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>141</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
         <v>43</v>
@@ -2001,7 +2002,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
         <v>64</v>
@@ -2019,7 +2020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
         <v>146</v>
@@ -2035,7 +2036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>148</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>43</v>
@@ -2073,7 +2074,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
         <v>119</v>
@@ -2091,7 +2092,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>153</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
         <v>43</v>
@@ -2129,7 +2130,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="2" t="s">
         <v>130</v>
@@ -2147,7 +2148,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
         <v>72</v>
@@ -2163,7 +2164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
         <v>160</v>
@@ -2179,7 +2180,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>162</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
         <v>43</v>
@@ -2217,7 +2218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
         <v>111</v>
@@ -2235,7 +2236,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2" t="s">
         <v>166</v>
@@ -2251,7 +2252,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>168</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="2" t="s">
         <v>64</v>
@@ -2289,7 +2290,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="2" t="s">
         <v>73</v>
@@ -2307,7 +2308,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="2" t="s">
         <v>146</v>
@@ -2323,7 +2324,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>174</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="2" t="s">
         <v>43</v>
@@ -2361,7 +2362,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="2" t="s">
         <v>178</v>
@@ -2377,7 +2378,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="2" t="s">
         <v>180</v>
@@ -2393,7 +2394,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="2" t="s">
         <v>182</v>
@@ -2409,7 +2410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="2" t="s">
         <v>184</v>
@@ -2425,7 +2426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>186</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="2" t="s">
         <v>82</v>
@@ -2461,7 +2462,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="2" t="s">
         <v>43</v>
@@ -2479,7 +2480,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="2" t="s">
         <v>191</v>
@@ -2495,7 +2496,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="2" t="s">
         <v>39</v>
@@ -2511,7 +2512,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="2" t="s">
         <v>182</v>
@@ -2529,6 +2530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>